--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf12-Tnfrsf12a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf12-Tnfrsf12a.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.977440666666666</v>
+        <v>4.960542333333334</v>
       </c>
       <c r="H2">
-        <v>17.932322</v>
+        <v>14.881627</v>
       </c>
       <c r="I2">
-        <v>0.1582766024611428</v>
+        <v>0.1435881646191863</v>
       </c>
       <c r="J2">
-        <v>0.1582766024611428</v>
+        <v>0.1435881646191863</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.571479333333333</v>
+        <v>6.139446</v>
       </c>
       <c r="N2">
-        <v>25.714438</v>
+        <v>18.418338</v>
       </c>
       <c r="O2">
-        <v>0.1249812214223146</v>
+        <v>0.1067674894682656</v>
       </c>
       <c r="P2">
-        <v>0.1249812214223147</v>
+        <v>0.1067674894682656</v>
       </c>
       <c r="Q2">
-        <v>51.23550914055955</v>
+        <v>30.454981786214</v>
       </c>
       <c r="R2">
-        <v>461.1195822650359</v>
+        <v>274.094836075926</v>
       </c>
       <c r="S2">
-        <v>0.01978160309816776</v>
+        <v>0.01533054785374656</v>
       </c>
       <c r="T2">
-        <v>0.01978160309816777</v>
+        <v>0.01533054785374656</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.977440666666666</v>
+        <v>4.960542333333334</v>
       </c>
       <c r="H3">
-        <v>17.932322</v>
+        <v>14.881627</v>
       </c>
       <c r="I3">
-        <v>0.1582766024611428</v>
+        <v>0.1435881646191863</v>
       </c>
       <c r="J3">
-        <v>0.1582766024611428</v>
+        <v>0.1435881646191863</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>54.645353</v>
       </c>
       <c r="O3">
-        <v>0.2655956534221571</v>
+        <v>0.3167683832774248</v>
       </c>
       <c r="P3">
-        <v>0.2655956534221571</v>
+        <v>0.3167683832774247</v>
       </c>
       <c r="Q3">
-        <v>108.8797850888518</v>
+        <v>90.35686229214789</v>
       </c>
       <c r="R3">
-        <v>979.918065799666</v>
+        <v>813.2117606293311</v>
       </c>
       <c r="S3">
-        <v>0.04203757765210624</v>
+        <v>0.04548419076419237</v>
       </c>
       <c r="T3">
-        <v>0.04203757765210624</v>
+        <v>0.04548419076419236</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.977440666666666</v>
+        <v>4.960542333333334</v>
       </c>
       <c r="H4">
-        <v>17.932322</v>
+        <v>14.881627</v>
       </c>
       <c r="I4">
-        <v>0.1582766024611428</v>
+        <v>0.1435881646191863</v>
       </c>
       <c r="J4">
-        <v>0.1582766024611428</v>
+        <v>0.1435881646191863</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.38338866666667</v>
+        <v>13.317528</v>
       </c>
       <c r="N4">
-        <v>37.150166</v>
+        <v>39.95258399999999</v>
       </c>
       <c r="O4">
-        <v>0.1805628854389797</v>
+        <v>0.231597285892462</v>
       </c>
       <c r="P4">
-        <v>0.1805628854389797</v>
+        <v>0.231597285892462</v>
       </c>
       <c r="Q4">
-        <v>74.02097100727244</v>
+        <v>66.06216141935199</v>
       </c>
       <c r="R4">
-        <v>666.188739065452</v>
+        <v>594.559452774168</v>
       </c>
       <c r="S4">
-        <v>0.02857888003786227</v>
+        <v>0.03325462921208359</v>
       </c>
       <c r="T4">
-        <v>0.02857888003786227</v>
+        <v>0.03325462921208359</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.977440666666666</v>
+        <v>4.960542333333334</v>
       </c>
       <c r="H5">
-        <v>17.932322</v>
+        <v>14.881627</v>
       </c>
       <c r="I5">
-        <v>0.1582766024611428</v>
+        <v>0.1435881646191863</v>
       </c>
       <c r="J5">
-        <v>0.1582766024611428</v>
+        <v>0.1435881646191863</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.819224</v>
+        <v>13.58033733333333</v>
       </c>
       <c r="N5">
-        <v>53.457672</v>
+        <v>40.741012</v>
       </c>
       <c r="O5">
-        <v>0.2598231056402426</v>
+        <v>0.2361676482230093</v>
       </c>
       <c r="P5">
-        <v>0.2598231056402427</v>
+        <v>0.2361676482230092</v>
       </c>
       <c r="Q5">
-        <v>106.5133541860426</v>
+        <v>67.36583824294711</v>
       </c>
       <c r="R5">
-        <v>958.6201876743838</v>
+        <v>606.2925441865241</v>
       </c>
       <c r="S5">
-        <v>0.0411239184016402</v>
+        <v>0.03391087915077153</v>
       </c>
       <c r="T5">
-        <v>0.04112391840164021</v>
+        <v>0.03391087915077153</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.977440666666666</v>
+        <v>4.960542333333334</v>
       </c>
       <c r="H6">
-        <v>17.932322</v>
+        <v>14.881627</v>
       </c>
       <c r="I6">
-        <v>0.1582766024611428</v>
+        <v>0.1435881646191863</v>
       </c>
       <c r="J6">
-        <v>0.1582766024611428</v>
+        <v>0.1435881646191863</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.592928</v>
+        <v>6.250524666666666</v>
       </c>
       <c r="N6">
-        <v>34.778784</v>
+        <v>18.751574</v>
       </c>
       <c r="O6">
-        <v>0.1690371340763059</v>
+        <v>0.1086991931388382</v>
       </c>
       <c r="P6">
-        <v>0.1690371340763059</v>
+        <v>0.1086991931388382</v>
       </c>
       <c r="Q6">
-        <v>69.29603927293867</v>
+        <v>31.00599221454422</v>
       </c>
       <c r="R6">
-        <v>623.664353456448</v>
+        <v>279.053929930898</v>
       </c>
       <c r="S6">
-        <v>0.02675462327136636</v>
+        <v>0.01560791763839223</v>
       </c>
       <c r="T6">
-        <v>0.02675462327136637</v>
+        <v>0.01560791763839223</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>14.438005</v>
       </c>
       <c r="I7">
-        <v>0.127434605385571</v>
+        <v>0.1393077946862016</v>
       </c>
       <c r="J7">
-        <v>0.127434605385571</v>
+        <v>0.1393077946862016</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.571479333333333</v>
+        <v>6.139446</v>
       </c>
       <c r="N7">
-        <v>25.714438</v>
+        <v>18.418338</v>
       </c>
       <c r="O7">
-        <v>0.1249812214223146</v>
+        <v>0.1067674894682656</v>
       </c>
       <c r="P7">
-        <v>0.1249812214223147</v>
+        <v>0.1067674894682656</v>
       </c>
       <c r="Q7">
-        <v>41.25168715735445</v>
+        <v>29.54711734841</v>
       </c>
       <c r="R7">
-        <v>371.26518441619</v>
+        <v>265.92405613569</v>
       </c>
       <c r="S7">
-        <v>0.01592693263255934</v>
+        <v>0.01487354350200634</v>
       </c>
       <c r="T7">
-        <v>0.01592693263255934</v>
+        <v>0.01487354350200634</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>14.438005</v>
       </c>
       <c r="I8">
-        <v>0.127434605385571</v>
+        <v>0.1393077946862016</v>
       </c>
       <c r="J8">
-        <v>0.127434605385571</v>
+        <v>0.1393077946862016</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>54.645353</v>
       </c>
       <c r="O8">
-        <v>0.2655956534221571</v>
+        <v>0.3167683832774248</v>
       </c>
       <c r="P8">
-        <v>0.2655956534221571</v>
+        <v>0.3167683832774247</v>
       </c>
       <c r="Q8">
         <v>87.66331998230723</v>
@@ -948,10 +948,10 @@
         <v>788.969879840765</v>
       </c>
       <c r="S8">
-        <v>0.03384607728597547</v>
+        <v>0.04412830490069153</v>
       </c>
       <c r="T8">
-        <v>0.03384607728597547</v>
+        <v>0.04412830490069151</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>14.438005</v>
       </c>
       <c r="I9">
-        <v>0.127434605385571</v>
+        <v>0.1393077946862016</v>
       </c>
       <c r="J9">
-        <v>0.127434605385571</v>
+        <v>0.1393077946862016</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.38338866666667</v>
+        <v>13.317528</v>
       </c>
       <c r="N9">
-        <v>37.150166</v>
+        <v>39.95258399999999</v>
       </c>
       <c r="O9">
-        <v>0.1805628854389797</v>
+        <v>0.231597285892462</v>
       </c>
       <c r="P9">
-        <v>0.1805628854389797</v>
+        <v>0.231597285892462</v>
       </c>
       <c r="Q9">
-        <v>59.59714249542556</v>
+        <v>64.09284528388</v>
       </c>
       <c r="R9">
-        <v>536.37428245883</v>
+        <v>576.83560755492</v>
       </c>
       <c r="S9">
-        <v>0.02300996005319644</v>
+        <v>0.03226330715298864</v>
       </c>
       <c r="T9">
-        <v>0.02300996005319644</v>
+        <v>0.03226330715298864</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>14.438005</v>
       </c>
       <c r="I10">
-        <v>0.127434605385571</v>
+        <v>0.1393077946862016</v>
       </c>
       <c r="J10">
-        <v>0.127434605385571</v>
+        <v>0.1393077946862016</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.819224</v>
+        <v>13.58033733333333</v>
       </c>
       <c r="N10">
-        <v>53.457672</v>
+        <v>40.741012</v>
       </c>
       <c r="O10">
-        <v>0.2598231056402426</v>
+        <v>0.2361676482230093</v>
       </c>
       <c r="P10">
-        <v>0.2598231056402427</v>
+        <v>0.2361676482230092</v>
       </c>
       <c r="Q10">
-        <v>85.75801506937333</v>
+        <v>65.35765944011779</v>
       </c>
       <c r="R10">
-        <v>771.8221356243599</v>
+        <v>588.21893496106</v>
       </c>
       <c r="S10">
-        <v>0.03311045493731784</v>
+        <v>0.03289999425017406</v>
       </c>
       <c r="T10">
-        <v>0.03311045493731785</v>
+        <v>0.03289999425017406</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>14.438005</v>
       </c>
       <c r="I11">
-        <v>0.127434605385571</v>
+        <v>0.1393077946862016</v>
       </c>
       <c r="J11">
-        <v>0.127434605385571</v>
+        <v>0.1393077946862016</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.592928</v>
+        <v>6.250524666666666</v>
       </c>
       <c r="N11">
-        <v>34.778784</v>
+        <v>18.751574</v>
       </c>
       <c r="O11">
-        <v>0.1690371340763059</v>
+        <v>0.1086991931388382</v>
       </c>
       <c r="P11">
-        <v>0.1690371340763059</v>
+        <v>0.1086991931388382</v>
       </c>
       <c r="Q11">
-        <v>55.79291747621334</v>
+        <v>30.08170212998555</v>
       </c>
       <c r="R11">
-        <v>502.1362572859201</v>
+        <v>270.73531916987</v>
       </c>
       <c r="S11">
-        <v>0.02154118047652189</v>
+        <v>0.01514264488034106</v>
       </c>
       <c r="T11">
-        <v>0.02154118047652189</v>
+        <v>0.01514264488034105</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.30737</v>
+        <v>11.78248366666667</v>
       </c>
       <c r="H12">
-        <v>51.92211</v>
+        <v>35.347451</v>
       </c>
       <c r="I12">
-        <v>0.4582817084933969</v>
+        <v>0.3410564996056291</v>
       </c>
       <c r="J12">
-        <v>0.4582817084933969</v>
+        <v>0.3410564996056292</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.571479333333333</v>
+        <v>6.139446</v>
       </c>
       <c r="N12">
-        <v>25.714438</v>
+        <v>18.418338</v>
       </c>
       <c r="O12">
-        <v>0.1249812214223146</v>
+        <v>0.1067674894682656</v>
       </c>
       <c r="P12">
-        <v>0.1249812214223147</v>
+        <v>0.1067674894682656</v>
       </c>
       <c r="Q12">
-        <v>148.3497642693533</v>
+        <v>72.33792221738199</v>
       </c>
       <c r="R12">
-        <v>1335.14787842418</v>
+        <v>651.0412999564379</v>
       </c>
       <c r="S12">
-        <v>0.0572766076830099</v>
+        <v>0.03641374622972755</v>
       </c>
       <c r="T12">
-        <v>0.0572766076830099</v>
+        <v>0.03641374622972755</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.30737</v>
+        <v>11.78248366666667</v>
       </c>
       <c r="H13">
-        <v>51.92211</v>
+        <v>35.347451</v>
       </c>
       <c r="I13">
-        <v>0.4582817084933969</v>
+        <v>0.3410564996056291</v>
       </c>
       <c r="J13">
-        <v>0.4582817084933969</v>
+        <v>0.3410564996056292</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>54.645353</v>
       </c>
       <c r="O13">
-        <v>0.2655956534221571</v>
+        <v>0.3167683832774248</v>
       </c>
       <c r="P13">
-        <v>0.2655956534221571</v>
+        <v>0.3167683832774247</v>
       </c>
       <c r="Q13">
-        <v>315.2557810505367</v>
+        <v>214.6193263939115</v>
       </c>
       <c r="R13">
-        <v>2837.30202945483</v>
+        <v>1931.573937545203</v>
       </c>
       <c r="S13">
-        <v>0.1217176298187263</v>
+        <v>0.1080359159863328</v>
       </c>
       <c r="T13">
-        <v>0.1217176298187263</v>
+        <v>0.1080359159863328</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.30737</v>
+        <v>11.78248366666667</v>
       </c>
       <c r="H14">
-        <v>51.92211</v>
+        <v>35.347451</v>
       </c>
       <c r="I14">
-        <v>0.4582817084933969</v>
+        <v>0.3410564996056291</v>
       </c>
       <c r="J14">
-        <v>0.4582817084933969</v>
+        <v>0.3410564996056292</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.38338866666667</v>
+        <v>13.317528</v>
       </c>
       <c r="N14">
-        <v>37.150166</v>
+        <v>39.95258399999999</v>
       </c>
       <c r="O14">
-        <v>0.1805628854389797</v>
+        <v>0.231597285892462</v>
       </c>
       <c r="P14">
-        <v>0.1805628854389797</v>
+        <v>0.231597285892462</v>
       </c>
       <c r="Q14">
-        <v>214.3238895078067</v>
+        <v>156.913556140376</v>
       </c>
       <c r="R14">
-        <v>1928.91500557026</v>
+        <v>1412.222005263384</v>
       </c>
       <c r="S14">
-        <v>0.08274866762947312</v>
+        <v>0.07898775964464726</v>
       </c>
       <c r="T14">
-        <v>0.08274866762947311</v>
+        <v>0.07898775964464727</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.30737</v>
+        <v>11.78248366666667</v>
       </c>
       <c r="H15">
-        <v>51.92211</v>
+        <v>35.347451</v>
       </c>
       <c r="I15">
-        <v>0.4582817084933969</v>
+        <v>0.3410564996056291</v>
       </c>
       <c r="J15">
-        <v>0.4582817084933969</v>
+        <v>0.3410564996056292</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.819224</v>
+        <v>13.58033733333333</v>
       </c>
       <c r="N15">
-        <v>53.457672</v>
+        <v>40.741012</v>
       </c>
       <c r="O15">
-        <v>0.2598231056402426</v>
+        <v>0.2361676482230093</v>
       </c>
       <c r="P15">
-        <v>0.2598231056402427</v>
+        <v>0.2361676482230092</v>
       </c>
       <c r="Q15">
-        <v>308.40390288088</v>
+        <v>160.0101028178235</v>
       </c>
       <c r="R15">
-        <v>2775.635125927919</v>
+        <v>1440.090925360412</v>
       </c>
       <c r="S15">
-        <v>0.1190721767588708</v>
+        <v>0.08054651142303311</v>
       </c>
       <c r="T15">
-        <v>0.1190721767588708</v>
+        <v>0.08054651142303312</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.30737</v>
+        <v>11.78248366666667</v>
       </c>
       <c r="H16">
-        <v>51.92211</v>
+        <v>35.347451</v>
       </c>
       <c r="I16">
-        <v>0.4582817084933969</v>
+        <v>0.3410564996056291</v>
       </c>
       <c r="J16">
-        <v>0.4582817084933969</v>
+        <v>0.3410564996056292</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.592928</v>
+        <v>6.250524666666666</v>
       </c>
       <c r="N16">
-        <v>34.778784</v>
+        <v>18.751574</v>
       </c>
       <c r="O16">
-        <v>0.1690371340763059</v>
+        <v>0.1086991931388382</v>
       </c>
       <c r="P16">
-        <v>0.1690371340763059</v>
+        <v>0.1086991931388382</v>
       </c>
       <c r="Q16">
-        <v>200.64309427936</v>
+        <v>73.6467047930971</v>
       </c>
       <c r="R16">
-        <v>1805.78784851424</v>
+        <v>662.8203431378739</v>
       </c>
       <c r="S16">
-        <v>0.07746662660331685</v>
+        <v>0.03707256632188839</v>
       </c>
       <c r="T16">
-        <v>0.07746662660331687</v>
+        <v>0.03707256632188839</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9424899999999999</v>
+        <v>0.9139316666666666</v>
       </c>
       <c r="H17">
-        <v>2.82747</v>
+        <v>2.741795</v>
       </c>
       <c r="I17">
-        <v>0.0249561849915927</v>
+        <v>0.02645472244480135</v>
       </c>
       <c r="J17">
-        <v>0.0249561849915927</v>
+        <v>0.02645472244480136</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.571479333333333</v>
+        <v>6.139446</v>
       </c>
       <c r="N17">
-        <v>25.714438</v>
+        <v>18.418338</v>
       </c>
       <c r="O17">
-        <v>0.1249812214223146</v>
+        <v>0.1067674894682656</v>
       </c>
       <c r="P17">
-        <v>0.1249812214223147</v>
+        <v>0.1067674894682656</v>
       </c>
       <c r="Q17">
-        <v>8.078533556873332</v>
+        <v>5.611034115189999</v>
       </c>
       <c r="R17">
-        <v>72.70680201185999</v>
+        <v>50.49930703670999</v>
       </c>
       <c r="S17">
-        <v>0.003119054482290493</v>
+        <v>0.002824504300011218</v>
       </c>
       <c r="T17">
-        <v>0.003119054482290493</v>
+        <v>0.002824504300011219</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.9424899999999999</v>
+        <v>0.9139316666666666</v>
       </c>
       <c r="H18">
-        <v>2.82747</v>
+        <v>2.741795</v>
       </c>
       <c r="I18">
-        <v>0.0249561849915927</v>
+        <v>0.02645472244480135</v>
       </c>
       <c r="J18">
-        <v>0.0249561849915927</v>
+        <v>0.02645472244480136</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>54.645353</v>
       </c>
       <c r="O18">
-        <v>0.2655956534221571</v>
+        <v>0.3167683832774248</v>
       </c>
       <c r="P18">
-        <v>0.2655956534221571</v>
+        <v>0.3167683832774247</v>
       </c>
       <c r="Q18">
-        <v>17.16756624965667</v>
+        <v>16.64737284762611</v>
       </c>
       <c r="R18">
-        <v>154.50809624691</v>
+        <v>149.826355628635</v>
       </c>
       <c r="S18">
-        <v>0.006628254259766294</v>
+        <v>0.008380019658892728</v>
       </c>
       <c r="T18">
-        <v>0.006628254259766293</v>
+        <v>0.008380019658892726</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.9424899999999999</v>
+        <v>0.9139316666666666</v>
       </c>
       <c r="H19">
-        <v>2.82747</v>
+        <v>2.741795</v>
       </c>
       <c r="I19">
-        <v>0.0249561849915927</v>
+        <v>0.02645472244480135</v>
       </c>
       <c r="J19">
-        <v>0.0249561849915927</v>
+        <v>0.02645472244480136</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.38338866666667</v>
+        <v>13.317528</v>
       </c>
       <c r="N19">
-        <v>37.150166</v>
+        <v>39.95258399999999</v>
       </c>
       <c r="O19">
-        <v>0.1805628854389797</v>
+        <v>0.231597285892462</v>
       </c>
       <c r="P19">
-        <v>0.1805628854389797</v>
+        <v>0.231597285892462</v>
       </c>
       <c r="Q19">
-        <v>11.67121998444667</v>
+        <v>12.17131056092</v>
       </c>
       <c r="R19">
-        <v>105.04097986002</v>
+        <v>109.54179504828</v>
       </c>
       <c r="S19">
-        <v>0.004506160771630937</v>
+        <v>0.00612684191725439</v>
       </c>
       <c r="T19">
-        <v>0.004506160771630937</v>
+        <v>0.006126841917254391</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.9424899999999999</v>
+        <v>0.9139316666666666</v>
       </c>
       <c r="H20">
-        <v>2.82747</v>
+        <v>2.741795</v>
       </c>
       <c r="I20">
-        <v>0.0249561849915927</v>
+        <v>0.02645472244480135</v>
       </c>
       <c r="J20">
-        <v>0.0249561849915927</v>
+        <v>0.02645472244480136</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.819224</v>
+        <v>13.58033733333333</v>
       </c>
       <c r="N20">
-        <v>53.457672</v>
+        <v>40.741012</v>
       </c>
       <c r="O20">
-        <v>0.2598231056402426</v>
+        <v>0.2361676482230093</v>
       </c>
       <c r="P20">
-        <v>0.2598231056402427</v>
+        <v>0.2361676482230092</v>
       </c>
       <c r="Q20">
-        <v>16.79444042776</v>
+        <v>12.41150033294889</v>
       </c>
       <c r="R20">
-        <v>151.14996384984</v>
+        <v>111.70350299654</v>
       </c>
       <c r="S20">
-        <v>0.006484193489448028</v>
+        <v>0.006247749584181192</v>
       </c>
       <c r="T20">
-        <v>0.006484193489448028</v>
+        <v>0.006247749584181192</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.9424899999999999</v>
+        <v>0.9139316666666666</v>
       </c>
       <c r="H21">
-        <v>2.82747</v>
+        <v>2.741795</v>
       </c>
       <c r="I21">
-        <v>0.0249561849915927</v>
+        <v>0.02645472244480135</v>
       </c>
       <c r="J21">
-        <v>0.0249561849915927</v>
+        <v>0.02645472244480136</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>11.592928</v>
+        <v>6.250524666666666</v>
       </c>
       <c r="N21">
-        <v>34.778784</v>
+        <v>18.751574</v>
       </c>
       <c r="O21">
-        <v>0.1690371340763059</v>
+        <v>0.1086991931388382</v>
       </c>
       <c r="P21">
-        <v>0.1690371340763059</v>
+        <v>0.1086991931388382</v>
       </c>
       <c r="Q21">
-        <v>10.92621871072</v>
+        <v>5.712552426147777</v>
       </c>
       <c r="R21">
-        <v>98.33596839648</v>
+        <v>51.41297183532999</v>
       </c>
       <c r="S21">
-        <v>0.004218521988456947</v>
+        <v>0.002875606984461821</v>
       </c>
       <c r="T21">
-        <v>0.004218521988456948</v>
+        <v>0.002875606984461821</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.725819333333334</v>
+        <v>12.077388</v>
       </c>
       <c r="H22">
-        <v>26.177458</v>
+        <v>36.232164</v>
       </c>
       <c r="I22">
-        <v>0.2310508986682965</v>
+        <v>0.3495928186441815</v>
       </c>
       <c r="J22">
-        <v>0.2310508986682965</v>
+        <v>0.3495928186441815</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.571479333333333</v>
+        <v>6.139446</v>
       </c>
       <c r="N22">
-        <v>25.714438</v>
+        <v>18.418338</v>
       </c>
       <c r="O22">
-        <v>0.1249812214223146</v>
+        <v>0.1067674894682656</v>
       </c>
       <c r="P22">
-        <v>0.1249812214223147</v>
+        <v>0.1067674894682656</v>
       </c>
       <c r="Q22">
-        <v>74.79318008206711</v>
+        <v>74.148471447048</v>
       </c>
       <c r="R22">
-        <v>673.138620738604</v>
+        <v>667.3362430234318</v>
       </c>
       <c r="S22">
-        <v>0.02887702352628715</v>
+        <v>0.03732514758277394</v>
       </c>
       <c r="T22">
-        <v>0.02887702352628715</v>
+        <v>0.03732514758277394</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.725819333333334</v>
+        <v>12.077388</v>
       </c>
       <c r="H23">
-        <v>26.177458</v>
+        <v>36.232164</v>
       </c>
       <c r="I23">
-        <v>0.2310508986682965</v>
+        <v>0.3495928186441815</v>
       </c>
       <c r="J23">
-        <v>0.2310508986682965</v>
+        <v>0.3495928186441815</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>54.645353</v>
       </c>
       <c r="O23">
-        <v>0.2655956534221571</v>
+        <v>0.3167683832774248</v>
       </c>
       <c r="P23">
-        <v>0.2655956534221571</v>
+        <v>0.3167683832774247</v>
       </c>
       <c r="Q23">
-        <v>158.9418258947416</v>
+        <v>219.991043525988</v>
       </c>
       <c r="R23">
-        <v>1430.476433052674</v>
+        <v>1979.919391733892</v>
       </c>
       <c r="S23">
-        <v>0.06136611440558282</v>
+        <v>0.1107399519673153</v>
       </c>
       <c r="T23">
-        <v>0.06136611440558281</v>
+        <v>0.1107399519673153</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.725819333333334</v>
+        <v>12.077388</v>
       </c>
       <c r="H24">
-        <v>26.177458</v>
+        <v>36.232164</v>
       </c>
       <c r="I24">
-        <v>0.2310508986682965</v>
+        <v>0.3495928186441815</v>
       </c>
       <c r="J24">
-        <v>0.2310508986682965</v>
+        <v>0.3495928186441815</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>12.38338866666667</v>
+        <v>13.317528</v>
       </c>
       <c r="N24">
-        <v>37.150166</v>
+        <v>39.95258399999999</v>
       </c>
       <c r="O24">
-        <v>0.1805628854389797</v>
+        <v>0.231597285892462</v>
       </c>
       <c r="P24">
-        <v>0.1805628854389797</v>
+        <v>0.231597285892462</v>
       </c>
       <c r="Q24">
-        <v>108.0552122397809</v>
+        <v>160.840952856864</v>
       </c>
       <c r="R24">
-        <v>972.4969101580281</v>
+        <v>1447.568575711776</v>
       </c>
       <c r="S24">
-        <v>0.04171921694681693</v>
+        <v>0.08096474796548812</v>
       </c>
       <c r="T24">
-        <v>0.04171921694681692</v>
+        <v>0.08096474796548812</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.725819333333334</v>
+        <v>12.077388</v>
       </c>
       <c r="H25">
-        <v>26.177458</v>
+        <v>36.232164</v>
       </c>
       <c r="I25">
-        <v>0.2310508986682965</v>
+        <v>0.3495928186441815</v>
       </c>
       <c r="J25">
-        <v>0.2310508986682965</v>
+        <v>0.3495928186441815</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.819224</v>
+        <v>13.58033733333333</v>
       </c>
       <c r="N25">
-        <v>53.457672</v>
+        <v>40.741012</v>
       </c>
       <c r="O25">
-        <v>0.2598231056402426</v>
+        <v>0.2361676482230093</v>
       </c>
       <c r="P25">
-        <v>0.2598231056402427</v>
+        <v>0.2361676482230092</v>
       </c>
       <c r="Q25">
-        <v>155.4873292841973</v>
+        <v>164.015003145552</v>
       </c>
       <c r="R25">
-        <v>1399.385963557776</v>
+        <v>1476.135028309968</v>
       </c>
       <c r="S25">
-        <v>0.0600323620529658</v>
+        <v>0.08256251381484932</v>
       </c>
       <c r="T25">
-        <v>0.0600323620529658</v>
+        <v>0.08256251381484932</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.725819333333334</v>
+        <v>12.077388</v>
       </c>
       <c r="H26">
-        <v>26.177458</v>
+        <v>36.232164</v>
       </c>
       <c r="I26">
-        <v>0.2310508986682965</v>
+        <v>0.3495928186441815</v>
       </c>
       <c r="J26">
-        <v>0.2310508986682965</v>
+        <v>0.3495928186441815</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>11.592928</v>
+        <v>6.250524666666666</v>
       </c>
       <c r="N26">
-        <v>34.778784</v>
+        <v>18.751574</v>
       </c>
       <c r="O26">
-        <v>0.1690371340763059</v>
+        <v>0.1086991931388382</v>
       </c>
       <c r="P26">
-        <v>0.1690371340763059</v>
+        <v>0.1086991931388382</v>
       </c>
       <c r="Q26">
-        <v>101.1577952723413</v>
+        <v>75.49001160290399</v>
       </c>
       <c r="R26">
-        <v>910.4201574510721</v>
+        <v>679.4101044261358</v>
       </c>
       <c r="S26">
-        <v>0.0390561817366438</v>
+        <v>0.03800045731375473</v>
       </c>
       <c r="T26">
-        <v>0.03905618173664379</v>
+        <v>0.03800045731375473</v>
       </c>
     </row>
   </sheetData>
